--- a/input/2^3.xlsx
+++ b/input/2^3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SoftwareTestUtil\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816AF9E7-0337-4534-9D44-15CA7530F08B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE630ACE-81E1-4A19-8C15-8DEEBAAFEBFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,22 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,8 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -400,7 +418,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -410,46 +428,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/input/2^3.xlsx
+++ b/input/2^3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SoftwareTestUtil\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE630ACE-81E1-4A19-8C15-8DEEBAAFEBFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B6B07A-2281-4CFD-A24F-F1A51237A2E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,29 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>操作系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>win10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Linux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IE11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chrome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,7 +406,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -429,13 +417,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -443,33 +431,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
